--- a/InputData/cost-outputs/CFQS/Cash Flow Quantization Size.xlsx
+++ b/InputData/cost-outputs/CFQS/Cash Flow Quantization Size.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipN\InputData\cost-outputs\CFQS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
   </bookViews>
@@ -65,13 +70,13 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Quantization Size</t>
+    <t>Quantization Size ($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,6 +128,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -170,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
